--- a/data/trans_orig/P14C34-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P14C34-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D9601F54-5BAF-441D-B36C-9D1AF94CE4C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{9E51FD9D-7BE0-4FE5-A49F-45FC638C984C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{E071F461-ACF0-493C-9255-B639F5FEBEFD}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{5DC812A1-4DA1-428F-ADFB-75893E4FCE04}"/>
   </bookViews>
   <sheets>
     <sheet name="2015" sheetId="2" r:id="rId1"/>
@@ -615,7 +615,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9067A0D7-EDCF-4E2D-B3BF-593AC8DA5803}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DE22DFC3-1492-4C00-9491-15AC8531B880}">
   <dimension ref="A1:Q32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">

--- a/data/trans_orig/P14C34-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P14C34-Edad-trans_orig.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{9E51FD9D-7BE0-4FE5-A49F-45FC638C984C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{77446B5B-131D-4DD3-9043-B877AC046E22}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{5DC812A1-4DA1-428F-ADFB-75893E4FCE04}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{C95E0EB6-1C46-46FC-8318-4347AB439F76}"/>
   </bookViews>
   <sheets>
-    <sheet name="2015" sheetId="2" r:id="rId1"/>
+    <sheet name="2016" sheetId="2" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +38,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="307" uniqueCount="56">
   <si>
-    <t>Población según el tiempo de diagnóstico del trastornos de próstata en 2015 (Tasa respuesta: 1,72%)</t>
+    <t>Población según el tiempo de diagnóstico del trastornos de próstata en 2016 (Tasa respuesta: 1,72%)</t>
   </si>
   <si>
     <t>Hombre</t>
@@ -122,28 +122,28 @@
     <t>41,57%</t>
   </si>
   <si>
-    <t>16,09%</t>
-  </si>
-  <si>
-    <t>74,0%</t>
+    <t>16,49%</t>
+  </si>
+  <si>
+    <t>68,1%</t>
   </si>
   <si>
     <t>33,59%</t>
   </si>
   <si>
-    <t>8,76%</t>
-  </si>
-  <si>
-    <t>60,56%</t>
+    <t>8,75%</t>
+  </si>
+  <si>
+    <t>66,04%</t>
   </si>
   <si>
     <t>24,84%</t>
   </si>
   <si>
-    <t>7,67%</t>
-  </si>
-  <si>
-    <t>57,17%</t>
+    <t>7,6%</t>
+  </si>
+  <si>
+    <t>58,42%</t>
   </si>
   <si>
     <t>65 y más</t>
@@ -152,55 +152,55 @@
     <t>60,75%</t>
   </si>
   <si>
-    <t>50,43%</t>
-  </si>
-  <si>
-    <t>69,94%</t>
+    <t>51,44%</t>
+  </si>
+  <si>
+    <t>70,68%</t>
   </si>
   <si>
     <t>30,58%</t>
   </si>
   <si>
-    <t>22,63%</t>
-  </si>
-  <si>
-    <t>40,95%</t>
+    <t>22,07%</t>
+  </si>
+  <si>
+    <t>40,45%</t>
   </si>
   <si>
     <t>8,67%</t>
   </si>
   <si>
-    <t>4,26%</t>
-  </si>
-  <si>
-    <t>16,98%</t>
+    <t>3,7%</t>
+  </si>
+  <si>
+    <t>15,35%</t>
   </si>
   <si>
     <t>56,71%</t>
   </si>
   <si>
-    <t>47,66%</t>
-  </si>
-  <si>
-    <t>65,62%</t>
+    <t>47,43%</t>
+  </si>
+  <si>
+    <t>64,9%</t>
   </si>
   <si>
     <t>31,39%</t>
   </si>
   <si>
-    <t>23,81%</t>
-  </si>
-  <si>
-    <t>40,44%</t>
+    <t>23,98%</t>
+  </si>
+  <si>
+    <t>40,53%</t>
   </si>
   <si>
     <t>11,89%</t>
   </si>
   <si>
-    <t>6,48%</t>
-  </si>
-  <si>
-    <t>19,06%</t>
+    <t>6,68%</t>
+  </si>
+  <si>
+    <t>18,91%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -615,7 +615,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DE22DFC3-1492-4C00-9491-15AC8531B880}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0F24B2C7-8F96-455F-979F-A1EE4C8C3E3C}">
   <dimension ref="A1:Q32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
